--- a/scalpel/typeinfer/evaluation/evaluation_outputs/keon__algorithms.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/keon__algorithms.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F579"/>
+  <dimension ref="A1:F580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]', 'List[str]'}</t>
+          <t>{'List[str]', 'any', 'List[any]'}</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -3168,12 +3168,12 @@
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[str]</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
@@ -3328,12 +3328,12 @@
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>generator</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -8224,7 +8224,7 @@
       </c>
       <c r="E243" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
+          <t>{'str', 'any'}</t>
         </is>
       </c>
       <c r="F243" s="3" t="inlineStr">
@@ -8256,12 +8256,12 @@
       </c>
       <c r="E244" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F244" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F244" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -8483,9 +8483,9 @@
           <t>{None, 'int'}</t>
         </is>
       </c>
-      <c r="F251" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F251" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -8543,9 +8543,9 @@
           <t>{'any', 'int'}</t>
         </is>
       </c>
-      <c r="F253" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F253" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="E261" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'float'}</t>
+          <t>{'float', 'any'}</t>
         </is>
       </c>
       <c r="F261" s="3" t="inlineStr">
@@ -8828,12 +8828,12 @@
       </c>
       <c r="E262" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F262" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F262" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="E368" s="2" t="inlineStr">
         <is>
-          <t>{'List[any]', 'List[str]'}</t>
+          <t>{'List[str]', 'List[any]'}</t>
         </is>
       </c>
       <c r="F368" s="3" t="inlineStr">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="E369" s="2" t="inlineStr">
         <is>
-          <t>List[any]</t>
+          <t>List[str]</t>
         </is>
       </c>
       <c r="F369" s="3" t="inlineStr">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="E370" s="2" t="inlineStr">
         <is>
-          <t>{'List[any]', 'List[str]'}</t>
+          <t>{'List[str]', 'List[any]'}</t>
         </is>
       </c>
       <c r="F370" s="3" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="E371" s="2" t="inlineStr">
         <is>
-          <t>List[any]</t>
+          <t>List[str]</t>
         </is>
       </c>
       <c r="F371" s="3" t="inlineStr">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="E374" s="2" t="inlineStr">
         <is>
-          <t>{'List[any]', 'List[str]'}</t>
+          <t>{'List[str]', 'List[any]'}</t>
         </is>
       </c>
       <c r="F374" s="3" t="inlineStr">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="E375" s="2" t="inlineStr">
         <is>
-          <t>List[any]</t>
+          <t>List[str]</t>
         </is>
       </c>
       <c r="F375" s="3" t="inlineStr">
@@ -13175,9 +13175,9 @@
           <t>{'any', 'int'}</t>
         </is>
       </c>
-      <c r="F398" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F398" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -13815,9 +13815,9 @@
           <t>{'any', 'int'}</t>
         </is>
       </c>
-      <c r="F418" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F418" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -18924,7 +18924,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E578" s="2" t="inlineStr">
         <is>
@@ -18932,21 +18932,35 @@
         </is>
       </c>
       <c r="F578" s="2" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="inlineStr"/>
       <c r="B579" s="2" t="inlineStr"/>
-      <c r="C579" s="2" t="inlineStr"/>
-      <c r="D579" s="2" t="inlineStr"/>
-      <c r="E579" s="2" t="inlineStr">
+      <c r="C579" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D579" s="2" t="n">
+        <v>722.86</v>
+      </c>
+      <c r="E579" s="2" t="inlineStr"/>
+      <c r="F579" s="2" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="inlineStr"/>
+      <c r="B580" s="2" t="inlineStr"/>
+      <c r="C580" s="2" t="inlineStr"/>
+      <c r="D580" s="2" t="inlineStr"/>
+      <c r="E580" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F579" s="2" t="n">
-        <v>128.38</v>
+      <c r="F580" s="2" t="n">
+        <v>141.43</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/keon__algorithms.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/keon__algorithms.xlsx
@@ -48,12 +48,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00008000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -512,7 +512,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -544,12 +544,12 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -707,7 +707,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -992,7 +992,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -1859,7 +1859,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F68" s="5" t="inlineStr">
+      <c r="F68" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F73" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>{'List[str]', 'any', 'List[any]'}</t>
+          <t>{'List[str]', 'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -3363,7 +3363,7 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="F91" s="5" t="inlineStr">
+      <c r="F91" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
@@ -3808,12 +3808,12 @@
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F105" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F105" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="F106" s="5" t="inlineStr">
+      <c r="F106" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
@@ -4064,12 +4064,12 @@
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F113" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F116" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F135" s="4" t="inlineStr">
+      <c r="F135" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4803,7 +4803,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F136" s="4" t="inlineStr">
+      <c r="F136" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4835,7 +4835,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F137" s="4" t="inlineStr">
+      <c r="F137" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4867,7 +4867,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F138" s="4" t="inlineStr">
+      <c r="F138" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5219,7 +5219,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F149" s="5" t="inlineStr">
+      <c r="F149" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -5251,7 +5251,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F150" s="4" t="inlineStr">
+      <c r="F150" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5283,7 +5283,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F151" s="4" t="inlineStr">
+      <c r="F151" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5315,7 +5315,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F152" s="4" t="inlineStr">
+      <c r="F152" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5347,7 +5347,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F153" s="4" t="inlineStr">
+      <c r="F153" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5571,7 +5571,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F160" s="4" t="inlineStr">
+      <c r="F160" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -5603,7 +5603,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F161" s="4" t="inlineStr">
+      <c r="F161" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -6147,7 +6147,7 @@
           <t>{'Union[Node, str]', 'str'}</t>
         </is>
       </c>
-      <c r="F178" s="5" t="inlineStr">
+      <c r="F178" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6179,7 +6179,7 @@
           <t>Union[Node, str]</t>
         </is>
       </c>
-      <c r="F179" s="5" t="inlineStr">
+      <c r="F179" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6211,7 +6211,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F180" s="5" t="inlineStr">
+      <c r="F180" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6243,7 +6243,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F181" s="5" t="inlineStr">
+      <c r="F181" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6275,7 +6275,7 @@
           <t>{'str'}</t>
         </is>
       </c>
-      <c r="F182" s="5" t="inlineStr">
+      <c r="F182" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6307,7 +6307,7 @@
           <t>str</t>
         </is>
       </c>
-      <c r="F183" s="5" t="inlineStr">
+      <c r="F183" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6339,7 +6339,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F184" s="5" t="inlineStr">
+      <c r="F184" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6371,7 +6371,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F185" s="5" t="inlineStr">
+      <c r="F185" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6403,7 +6403,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F186" s="5" t="inlineStr">
+      <c r="F186" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6435,7 +6435,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F187" s="5" t="inlineStr">
+      <c r="F187" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6467,7 +6467,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F188" s="5" t="inlineStr">
+      <c r="F188" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6499,7 +6499,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F189" s="5" t="inlineStr">
+      <c r="F189" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6531,7 +6531,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F190" s="5" t="inlineStr">
+      <c r="F190" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6563,7 +6563,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F191" s="5" t="inlineStr">
+      <c r="F191" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6595,7 +6595,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F192" s="5" t="inlineStr">
+      <c r="F192" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6627,7 +6627,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F193" s="5" t="inlineStr">
+      <c r="F193" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6659,7 +6659,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F194" s="4" t="inlineStr">
+      <c r="F194" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -6691,7 +6691,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F195" s="4" t="inlineStr">
+      <c r="F195" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -6723,7 +6723,7 @@
           <t>{'str'}</t>
         </is>
       </c>
-      <c r="F196" s="5" t="inlineStr">
+      <c r="F196" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6755,7 +6755,7 @@
           <t>str</t>
         </is>
       </c>
-      <c r="F197" s="5" t="inlineStr">
+      <c r="F197" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6787,7 +6787,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F198" s="5" t="inlineStr">
+      <c r="F198" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6819,7 +6819,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F199" s="5" t="inlineStr">
+      <c r="F199" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6851,7 +6851,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F200" s="5" t="inlineStr">
+      <c r="F200" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6883,7 +6883,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F201" s="5" t="inlineStr">
+      <c r="F201" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6915,7 +6915,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F202" s="5" t="inlineStr">
+      <c r="F202" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6947,7 +6947,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F203" s="5" t="inlineStr">
+      <c r="F203" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -6979,7 +6979,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F204" s="5" t="inlineStr">
+      <c r="F204" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7011,7 +7011,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F205" s="5" t="inlineStr">
+      <c r="F205" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7043,7 +7043,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F206" s="5" t="inlineStr">
+      <c r="F206" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7075,7 +7075,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F207" s="5" t="inlineStr">
+      <c r="F207" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7107,7 +7107,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F208" s="5" t="inlineStr">
+      <c r="F208" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7139,7 +7139,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F209" s="5" t="inlineStr">
+      <c r="F209" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7171,7 +7171,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F210" s="5" t="inlineStr">
+      <c r="F210" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7203,7 +7203,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F211" s="5" t="inlineStr">
+      <c r="F211" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7235,7 +7235,7 @@
           <t>{'str'}</t>
         </is>
       </c>
-      <c r="F212" s="5" t="inlineStr">
+      <c r="F212" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7267,7 +7267,7 @@
           <t>str</t>
         </is>
       </c>
-      <c r="F213" s="5" t="inlineStr">
+      <c r="F213" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7299,7 +7299,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F214" s="4" t="inlineStr">
+      <c r="F214" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -7331,7 +7331,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F215" s="4" t="inlineStr">
+      <c r="F215" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -7395,7 +7395,7 @@
           <t>Union[Node, str]</t>
         </is>
       </c>
-      <c r="F217" s="5" t="inlineStr">
+      <c r="F217" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7427,7 +7427,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F218" s="5" t="inlineStr">
+      <c r="F218" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7459,7 +7459,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F219" s="5" t="inlineStr">
+      <c r="F219" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7491,7 +7491,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F220" s="5" t="inlineStr">
+      <c r="F220" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7523,7 +7523,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F221" s="5" t="inlineStr">
+      <c r="F221" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7555,7 +7555,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F222" s="5" t="inlineStr">
+      <c r="F222" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7587,7 +7587,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F223" s="5" t="inlineStr">
+      <c r="F223" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7683,7 +7683,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F226" s="5" t="inlineStr">
+      <c r="F226" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7939,7 +7939,7 @@
           <t>Union[Node, str]</t>
         </is>
       </c>
-      <c r="F234" s="5" t="inlineStr">
+      <c r="F234" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -7971,7 +7971,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F235" s="5" t="inlineStr">
+      <c r="F235" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8003,7 +8003,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F236" s="5" t="inlineStr">
+      <c r="F236" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8035,7 +8035,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F237" s="5" t="inlineStr">
+      <c r="F237" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8067,7 +8067,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F238" s="5" t="inlineStr">
+      <c r="F238" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8099,7 +8099,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F239" s="5" t="inlineStr">
+      <c r="F239" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8131,7 +8131,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F240" s="5" t="inlineStr">
+      <c r="F240" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8163,7 +8163,7 @@
           <t>DirectedEdge</t>
         </is>
       </c>
-      <c r="F241" s="5" t="inlineStr">
+      <c r="F241" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8483,7 +8483,7 @@
           <t>{None, 'int'}</t>
         </is>
       </c>
-      <c r="F251" s="5" t="inlineStr">
+      <c r="F251" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8540,10 +8540,10 @@
       </c>
       <c r="E253" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'int'}</t>
-        </is>
-      </c>
-      <c r="F253" s="5" t="inlineStr">
+          <t>{'int', 'any'}</t>
+        </is>
+      </c>
+      <c r="F253" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8572,12 +8572,12 @@
       </c>
       <c r="E254" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F254" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F254" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="E261" s="2" t="inlineStr">
         <is>
-          <t>{'float', 'any'}</t>
+          <t>{'any', 'float'}</t>
         </is>
       </c>
       <c r="F261" s="3" t="inlineStr">
@@ -8828,12 +8828,12 @@
       </c>
       <c r="E262" s="2" t="inlineStr">
         <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F262" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>any</t>
+        </is>
+      </c>
+      <c r="F262" s="5" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
           <t>{'float'}</t>
         </is>
       </c>
-      <c r="F263" s="5" t="inlineStr">
+      <c r="F263" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8895,7 +8895,7 @@
           <t>float</t>
         </is>
       </c>
-      <c r="F264" s="5" t="inlineStr">
+      <c r="F264" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -9279,7 +9279,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F276" s="4" t="inlineStr">
+      <c r="F276" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -9311,7 +9311,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F277" s="4" t="inlineStr">
+      <c r="F277" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -9343,7 +9343,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F278" s="4" t="inlineStr">
+      <c r="F278" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -9375,7 +9375,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F279" s="4" t="inlineStr">
+      <c r="F279" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -9599,7 +9599,7 @@
           <t>{'float'}</t>
         </is>
       </c>
-      <c r="F286" s="5" t="inlineStr">
+      <c r="F286" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -9631,7 +9631,7 @@
           <t>float</t>
         </is>
       </c>
-      <c r="F287" s="5" t="inlineStr">
+      <c r="F287" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -9727,7 +9727,7 @@
           <t>{'float'}</t>
         </is>
       </c>
-      <c r="F290" s="5" t="inlineStr">
+      <c r="F290" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -9759,7 +9759,7 @@
           <t>float</t>
         </is>
       </c>
-      <c r="F291" s="5" t="inlineStr">
+      <c r="F291" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -9791,7 +9791,7 @@
           <t>{'float'}</t>
         </is>
       </c>
-      <c r="F292" s="5" t="inlineStr">
+      <c r="F292" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -9823,7 +9823,7 @@
           <t>float</t>
         </is>
       </c>
-      <c r="F293" s="5" t="inlineStr">
+      <c r="F293" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -9855,7 +9855,7 @@
           <t>{'float'}</t>
         </is>
       </c>
-      <c r="F294" s="5" t="inlineStr">
+      <c r="F294" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -9887,7 +9887,7 @@
           <t>float</t>
         </is>
       </c>
-      <c r="F295" s="5" t="inlineStr">
+      <c r="F295" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -9919,7 +9919,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F296" s="5" t="inlineStr">
+      <c r="F296" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -9951,7 +9951,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F297" s="5" t="inlineStr">
+      <c r="F297" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -10911,7 +10911,7 @@
           <t>{'int'}</t>
         </is>
       </c>
-      <c r="F327" s="5" t="inlineStr">
+      <c r="F327" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -10943,7 +10943,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F328" s="5" t="inlineStr">
+      <c r="F328" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -10975,7 +10975,7 @@
           <t>{'int'}</t>
         </is>
       </c>
-      <c r="F329" s="5" t="inlineStr">
+      <c r="F329" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -11007,7 +11007,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F330" s="5" t="inlineStr">
+      <c r="F330" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -11039,7 +11039,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F331" s="5" t="inlineStr">
+      <c r="F331" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -11071,7 +11071,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F332" s="5" t="inlineStr">
+      <c r="F332" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -11103,7 +11103,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F333" s="5" t="inlineStr">
+      <c r="F333" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -11135,7 +11135,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F334" s="5" t="inlineStr">
+      <c r="F334" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -11167,7 +11167,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F335" s="4" t="inlineStr">
+      <c r="F335" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -11199,7 +11199,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F336" s="4" t="inlineStr">
+      <c r="F336" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -11231,7 +11231,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F337" s="4" t="inlineStr">
+      <c r="F337" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -11263,7 +11263,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F338" s="4" t="inlineStr">
+      <c r="F338" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -11359,7 +11359,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F341" s="4" t="inlineStr">
+      <c r="F341" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -11391,7 +11391,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F342" s="4" t="inlineStr">
+      <c r="F342" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -11423,7 +11423,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F343" s="4" t="inlineStr">
+      <c r="F343" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -11455,7 +11455,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F344" s="4" t="inlineStr">
+      <c r="F344" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -11740,10 +11740,10 @@
       </c>
       <c r="E353" s="2" t="inlineStr">
         <is>
-          <t>{'float', 'int'}</t>
-        </is>
-      </c>
-      <c r="F353" s="5" t="inlineStr">
+          <t>{'int', 'float'}</t>
+        </is>
+      </c>
+      <c r="F353" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -11772,10 +11772,10 @@
       </c>
       <c r="E354" s="2" t="inlineStr">
         <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F354" s="5" t="inlineStr">
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F354" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -11991,7 +11991,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F361" s="5" t="inlineStr">
+      <c r="F361" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -12023,7 +12023,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F362" s="5" t="inlineStr">
+      <c r="F362" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -12823,7 +12823,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F387" s="5" t="inlineStr">
+      <c r="F387" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -12855,7 +12855,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F388" s="5" t="inlineStr">
+      <c r="F388" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -12887,7 +12887,7 @@
           <t>{'int'}</t>
         </is>
       </c>
-      <c r="F389" s="5" t="inlineStr">
+      <c r="F389" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -12919,7 +12919,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F390" s="5" t="inlineStr">
+      <c r="F390" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -12951,7 +12951,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F391" s="5" t="inlineStr">
+      <c r="F391" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -12983,7 +12983,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F392" s="5" t="inlineStr">
+      <c r="F392" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -13079,7 +13079,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F395" s="5" t="inlineStr">
+      <c r="F395" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -13111,7 +13111,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F396" s="5" t="inlineStr">
+      <c r="F396" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -13172,10 +13172,10 @@
       </c>
       <c r="E398" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'int'}</t>
-        </is>
-      </c>
-      <c r="F398" s="5" t="inlineStr">
+          <t>{'int', 'any'}</t>
+        </is>
+      </c>
+      <c r="F398" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -13204,12 +13204,12 @@
       </c>
       <c r="E399" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F399" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F399" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="E416" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'int'}</t>
+          <t>{'int', 'any'}</t>
         </is>
       </c>
       <c r="F416" s="3" t="inlineStr">
@@ -13780,12 +13780,12 @@
       </c>
       <c r="E417" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F417" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F417" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -13812,10 +13812,10 @@
       </c>
       <c r="E418" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'int'}</t>
-        </is>
-      </c>
-      <c r="F418" s="5" t="inlineStr">
+          <t>{'int', 'any'}</t>
+        </is>
+      </c>
+      <c r="F418" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="E419" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F419" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F419" s="4" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -14423,7 +14423,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F437" s="5" t="inlineStr">
+      <c r="F437" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -14455,7 +14455,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F438" s="5" t="inlineStr">
+      <c r="F438" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -14551,7 +14551,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F441" s="5" t="inlineStr">
+      <c r="F441" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -14871,7 +14871,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F451" s="5" t="inlineStr">
+      <c r="F451" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -15351,7 +15351,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F466" s="4" t="inlineStr">
+      <c r="F466" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -15383,7 +15383,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F467" s="4" t="inlineStr">
+      <c r="F467" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -15767,7 +15767,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F479" s="4" t="inlineStr">
+      <c r="F479" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -15799,7 +15799,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F480" s="4" t="inlineStr">
+      <c r="F480" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -15895,7 +15895,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F483" s="4" t="inlineStr">
+      <c r="F483" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -15927,7 +15927,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F484" s="4" t="inlineStr">
+      <c r="F484" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -16311,7 +16311,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F496" s="4" t="inlineStr">
+      <c r="F496" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -16343,7 +16343,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F497" s="4" t="inlineStr">
+      <c r="F497" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -16407,7 +16407,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F499" s="4" t="inlineStr">
+      <c r="F499" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -16439,7 +16439,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F500" s="4" t="inlineStr">
+      <c r="F500" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -16503,7 +16503,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F502" s="4" t="inlineStr">
+      <c r="F502" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -16535,7 +16535,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F503" s="4" t="inlineStr">
+      <c r="F503" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -16631,7 +16631,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F506" s="4" t="inlineStr">
+      <c r="F506" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -16663,7 +16663,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F507" s="4" t="inlineStr">
+      <c r="F507" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -16855,7 +16855,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F513" s="5" t="inlineStr">
+      <c r="F513" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -17047,7 +17047,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F519" s="5" t="inlineStr">
+      <c r="F519" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -17143,7 +17143,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F522" s="4" t="inlineStr">
+      <c r="F522" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -17175,7 +17175,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F523" s="4" t="inlineStr">
+      <c r="F523" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -17335,7 +17335,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F528" s="4" t="inlineStr">
+      <c r="F528" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -17367,7 +17367,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F529" s="4" t="inlineStr">
+      <c r="F529" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -17399,7 +17399,7 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="F530" s="5" t="inlineStr">
+      <c r="F530" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -17527,7 +17527,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F534" s="4" t="inlineStr">
+      <c r="F534" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -17559,7 +17559,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F535" s="4" t="inlineStr">
+      <c r="F535" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -17623,7 +17623,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F537" s="4" t="inlineStr">
+      <c r="F537" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -17655,7 +17655,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F538" s="4" t="inlineStr">
+      <c r="F538" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -17719,7 +17719,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F540" s="4" t="inlineStr">
+      <c r="F540" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -17751,7 +17751,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F541" s="4" t="inlineStr">
+      <c r="F541" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -18231,7 +18231,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F556" s="4" t="inlineStr">
+      <c r="F556" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -18263,7 +18263,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F557" s="4" t="inlineStr">
+      <c r="F557" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -18359,7 +18359,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F560" s="4" t="inlineStr">
+      <c r="F560" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -18391,7 +18391,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F561" s="4" t="inlineStr">
+      <c r="F561" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -18487,7 +18487,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F564" s="4" t="inlineStr">
+      <c r="F564" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -18519,7 +18519,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F565" s="4" t="inlineStr">
+      <c r="F565" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -18807,7 +18807,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F574" s="4" t="inlineStr">
+      <c r="F574" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -18839,7 +18839,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F575" s="4" t="inlineStr">
+      <c r="F575" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -18924,7 +18924,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E578" s="2" t="inlineStr">
         <is>
@@ -18932,22 +18932,22 @@
         </is>
       </c>
       <c r="F578" s="2" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="inlineStr"/>
       <c r="B579" s="2" t="inlineStr"/>
-      <c r="C579" s="2" t="inlineStr">
+      <c r="C579" s="2" t="inlineStr"/>
+      <c r="D579" s="2" t="inlineStr"/>
+      <c r="E579" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D579" s="2" t="n">
-        <v>722.86</v>
-      </c>
-      <c r="E579" s="2" t="inlineStr"/>
-      <c r="F579" s="2" t="inlineStr"/>
+      <c r="F579" s="2" t="n">
+        <v>89.41</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="inlineStr"/>
@@ -18956,11 +18956,11 @@
       <c r="D580" s="2" t="inlineStr"/>
       <c r="E580" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F580" s="2" t="n">
-        <v>141.43</v>
+        <v>167.21</v>
       </c>
     </row>
   </sheetData>
